--- a/data/trans_dic/P56$familiarvive-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P56$familiarvive-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población a la que, al menos, le ayudaun familiar conviviente cuando tiene dificultades en la actividades básicas</t>
+          <t>Población a la que, al menos, le ayuda un familiar conviviente cuando tiene dificultades en la actividades básicas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,93; 34,6</t>
+          <t>10,83; 33,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,96; 31,9</t>
+          <t>9,8; 32,59</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,9; 31,55</t>
+          <t>11,57; 30,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,12; 16,22</t>
+          <t>5,66; 17,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>31,99; 53,34</t>
+          <t>32,98; 55,76</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>21,28; 34,77</t>
+          <t>21,69; 34,91</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>18,34; 36,31</t>
+          <t>18,68; 35,32</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>18,51; 27,04</t>
+          <t>18,74; 27,43</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>27,62; 45,23</t>
+          <t>26,54; 43,91</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>20,6; 31,99</t>
+          <t>20,21; 31,45</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>18,71; 31,42</t>
+          <t>18,22; 31,45</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>16,28; 23,03</t>
+          <t>16,17; 23,4</t>
         </is>
       </c>
     </row>
@@ -869,57 +870,57 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,84; 68,05</t>
+          <t>11,2; 67,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 37,64</t>
+          <t>0,0; 30,74</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,89; 34,13</t>
+          <t>9,74; 35,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 80,0</t>
+          <t>0,0; 71,41</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,82; 74,38</t>
+          <t>9,89; 75,22</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>13,05; 54,57</t>
+          <t>12,88; 57,59</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,26; 24,48</t>
+          <t>8,87; 25,11</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 51,08</t>
+          <t>0,0; 52,03</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>16,67; 61,74</t>
+          <t>16,63; 61,09</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10,73; 42,16</t>
+          <t>10,35; 43,46</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>11,03; 25,33</t>
+          <t>11,46; 24,95</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1020,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 50,75</t>
+          <t>0,0; 54,4</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1040,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,63; 52,13</t>
+          <t>5,78; 53,73</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1060,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,4; 41,3</t>
+          <t>4,6; 41,44</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,48; 31,14</t>
+          <t>9,93; 31,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,89; 31,0</t>
+          <t>12,0; 32,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,32; 25,96</t>
+          <t>10,08; 27,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,44; 19,41</t>
+          <t>8,41; 19,63</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>30,27; 51,76</t>
+          <t>30,8; 51,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>22,38; 35,28</t>
+          <t>22,72; 35,45</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>19,62; 34,6</t>
+          <t>19,26; 34,14</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,89; 25,32</t>
+          <t>17,86; 25,61</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>26,23; 41,11</t>
+          <t>25,87; 41,88</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>20,97; 32,4</t>
+          <t>20,76; 32,84</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>18,57; 29,98</t>
+          <t>18,0; 29,82</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>16,15; 22,1</t>
+          <t>16,05; 22,13</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que, al menos, le ayuda un familiar conviviente cuando tiene dificultades en la actividades básicas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>9341</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>12857</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>11225</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>6903</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>36131</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>52009</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>38130</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>45482</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>45472</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>64866</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>49355</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>52386</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>4782; 14964</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>6704; 22292</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>6561; 17155</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>3847; 11632</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>27508; 46515</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>40326; 64921</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>26666; 50410</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>37586; 55007</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>33851; 56004</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>51405; 79982</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>36336; 62715</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>43410; 62832</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>3108</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>741</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>5493</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>2258</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>4589</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>7925</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>6642</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>2257</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>7698</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>8667</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>12136</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1268</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1022; 6185</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 3437</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>2639; 9613</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4834</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1163; 8848</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>3270; 14618</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>3732; 10564</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5679</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>3475; 12760</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>3784; 15889</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>7930; 17263</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>872</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>1053</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>1518</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>1053</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>2390</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 761</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1877</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 3523</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1493</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 3281</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1630</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>374; 3476</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1493</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4289</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2086</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>596; 5365</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>9341</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>15965</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>11967</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>13269</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>38389</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>57651</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>46055</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>53643</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>47729</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>73616</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>58021</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>66911</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>4792; 15366</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>9419; 25791</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>7267; 19490</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>8536; 19919</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>28816; 48252</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>45919; 71654</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>33081; 58651</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>44491; 63798</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>36686; 59390</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>58259; 92168</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>43897; 72721</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>56266; 77594</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>